--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2545756.101011741</v>
+        <v>-2548237.020837199</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10721426.73834739</v>
+        <v>10721426.73834738</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1370,13 +1370,13 @@
         <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>15.76504954307349</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335564</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851353</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>379.9558991545849</v>
@@ -1385,10 +1385,10 @@
         <v>384.0015790663269</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6876178001939</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579947</v>
+        <v>14.6567831857995</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104934</v>
+        <v>82.2676152010494</v>
       </c>
       <c r="T11" t="n">
         <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
         <v>300.8321118830084</v>
       </c>
       <c r="W11" t="n">
-        <v>222.198732617787</v>
+        <v>322.3208221302865</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8109540913425</v>
       </c>
       <c r="Y11" t="n">
         <v>359.3177920689271</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115013</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310858</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>92.6464191579979</v>
+        <v>118.5009014358047</v>
       </c>
       <c r="G13" t="n">
         <v>139.1056616719017</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271161</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01200608292086</v>
       </c>
       <c r="S13" t="n">
         <v>162.8488787443154</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890427</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>259.2916916184864</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367015</v>
+        <v>80.04596759506886</v>
       </c>
       <c r="W13" t="n">
         <v>259.6028517494645</v>
@@ -1610,10 +1610,10 @@
         <v>338.352745183881</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7628950335564</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F14" t="n">
         <v>379.9558991545849</v>
@@ -1622,10 +1622,10 @@
         <v>384.0015790663269</v>
       </c>
       <c r="H14" t="n">
-        <v>267.687617800194</v>
+        <v>267.6876178001939</v>
       </c>
       <c r="I14" t="n">
-        <v>14.6567831857995</v>
+        <v>14.65678318579946</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104937</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>202.3194416139764</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>322.3208221302865</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913425</v>
+        <v>79.86765908482931</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,16 +1765,16 @@
         <v>152.9118335948108</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115013</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310858</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358047</v>
       </c>
       <c r="G16" t="n">
         <v>139.1056616719017</v>
@@ -1783,7 +1783,7 @@
         <v>117.8348683271943</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271159</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292086</v>
+        <v>62.01200608292085</v>
       </c>
       <c r="S16" t="n">
         <v>162.8488787443154</v>
       </c>
       <c r="T16" t="n">
-        <v>21.94878766482469</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184864</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>225.2174967367015</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494645</v>
+        <v>40.76753702577459</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019106</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
         <v>191.6645067649683</v>
@@ -1844,19 +1844,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>267.1640487096469</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149638</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
         <v>308.0350868665427</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359923</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477343</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H17" t="n">
         <v>220.7124811816014</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245675</v>
+        <v>11.07891872681549</v>
       </c>
       <c r="T17" t="n">
         <v>130.0226869339011</v>
@@ -1907,7 +1907,7 @@
         <v>275.3456855116939</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8358174727499</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
         <v>312.3426554503345</v>
@@ -2002,25 +2002,25 @@
         <v>105.9366969762182</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290874</v>
+        <v>93.35153789290877</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249326</v>
+        <v>74.72018981249329</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085007</v>
+        <v>72.5386794408501</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721215</v>
+        <v>71.52576481721218</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330913</v>
+        <v>92.13052505330916</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860169</v>
+        <v>70.85973170860171</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411901</v>
+        <v>22.45713720411904</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432825</v>
+        <v>15.03686946432828</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257228</v>
       </c>
       <c r="T19" t="n">
-        <v>208.0533602654137</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U19" t="n">
         <v>212.3165549998938</v>
@@ -2065,7 +2065,7 @@
         <v>212.6277151308719</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833181</v>
+        <v>214.2140663782817</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6893701463757</v>
@@ -2084,16 +2084,16 @@
         <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7877584149638</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F20" t="n">
-        <v>307.9637310891315</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477343</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
         <v>220.7124811816014</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245675</v>
+        <v>9.362935956137468</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339011</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531829</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>253.8569752644158</v>
@@ -2144,7 +2144,7 @@
         <v>275.3456855116939</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8358174727499</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
         <v>312.3426554503345</v>
@@ -2239,25 +2239,25 @@
         <v>105.9366969762182</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290874</v>
+        <v>93.35153789290877</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249326</v>
+        <v>74.72018981249329</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085007</v>
+        <v>72.5386794408501</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721215</v>
+        <v>71.52576481721218</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330913</v>
+        <v>92.13052505330916</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860169</v>
+        <v>70.85973170860171</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411901</v>
+        <v>84.85683139908259</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432825</v>
+        <v>15.03686946432828</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257228</v>
       </c>
       <c r="T22" t="n">
-        <v>208.0533602654137</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U22" t="n">
         <v>212.3165549998938</v>
@@ -2321,16 +2321,16 @@
         <v>291.3776085652885</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7877584149638</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
         <v>308.0350868665427</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359923</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477343</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H23" t="n">
         <v>220.7124811816014</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245675</v>
+        <v>35.29247858245678</v>
       </c>
       <c r="T23" t="n">
         <v>130.0226869339011</v>
@@ -2381,7 +2381,7 @@
         <v>275.3456855116939</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8358174727499</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
         <v>312.3426554503345</v>
@@ -2476,25 +2476,25 @@
         <v>105.9366969762182</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290874</v>
+        <v>155.7512320878724</v>
       </c>
       <c r="D25" t="n">
-        <v>137.1198840074572</v>
+        <v>74.72018981249329</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085007</v>
+        <v>72.5386794408501</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721215</v>
+        <v>71.52576481721218</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330913</v>
+        <v>92.13052505330916</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860169</v>
+        <v>70.85973170860171</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411901</v>
+        <v>22.45713720411904</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432825</v>
+        <v>15.03686946432828</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257228</v>
@@ -2731,7 +2731,7 @@
         <v>97.77987829572821</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
         <v>196.9230441592154</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007076</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420298</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893079</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503639</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279485</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.1472599538322</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052274</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846408</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F37" t="n">
-        <v>98.69583361727881</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092313</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621569</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333682</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480641</v>
+        <v>165.403467130725</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775077</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957229</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>128.024935160932</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007076</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420298</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893079</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503639</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="39">
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383229</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052274</v>
+        <v>69.56210087052283</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010726</v>
+        <v>50.93075279010735</v>
       </c>
       <c r="E40" t="n">
-        <v>90.95618068285853</v>
+        <v>48.74924241846416</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482615</v>
+        <v>47.73632779482624</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092313</v>
+        <v>68.34108803092322</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621569</v>
+        <v>47.07029468621577</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333682</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480641</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957229</v>
+        <v>205.4124289181745</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084859</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.1472599538322</v>
+        <v>125.6864980364939</v>
       </c>
       <c r="C43" t="n">
         <v>69.56210087052274</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>89.94326605922079</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>68.34108803092313</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621569</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,16 +3955,16 @@
         <v>188.5271179775077</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957229</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X43" t="n">
         <v>128.024935160932</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353754</v>
       </c>
       <c r="C44" t="n">
         <v>267.5881715429024</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925779</v>
+        <v>256.9983213925778</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441566</v>
       </c>
       <c r="F44" t="n">
         <v>309.1913255136063</v>
@@ -3992,7 +3992,7 @@
         <v>313.2370054253483</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592153</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007076</v>
+        <v>11.5030415600707</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.233249911515</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307969</v>
+        <v>153.3104517307968</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420298</v>
+        <v>230.0675382420297</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893079</v>
+        <v>251.5562484893078</v>
       </c>
       <c r="X44" t="n">
         <v>272.0463804503639</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279484</v>
       </c>
     </row>
     <row r="45">
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383215</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052274</v>
+        <v>69.56210087052268</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010726</v>
+        <v>50.93075279010721</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846408</v>
+        <v>48.74924241846402</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>47.7363277948261</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092313</v>
+        <v>68.34108803092307</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>98.02980050866869</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333682</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480641</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775077</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>196.6598613601176</v>
+        <v>154.4529230957228</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084858</v>
       </c>
       <c r="X46" t="n">
         <v>128.024935160932</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239896</v>
       </c>
     </row>
   </sheetData>
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1813.052518175211</v>
+        <v>1139.306993957414</v>
       </c>
       <c r="C11" t="n">
-        <v>1813.052518175211</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="D11" t="n">
-        <v>1481.978886828184</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="E11" t="n">
         <v>1123.382701489664</v>
@@ -5030,19 +5030,19 @@
         <v>739.5888639597797</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810645</v>
+        <v>351.7084810644999</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299093</v>
+        <v>81.316947932991</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912091</v>
+        <v>255.3912473912094</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5060,7 +5060,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
         <v>3325.60582160917</v>
@@ -5069,22 +5069,22 @@
         <v>3242.507220395988</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.721540039935</v>
+        <v>3063.721540039934</v>
       </c>
       <c r="U11" t="n">
-        <v>3063.721540039935</v>
+        <v>2837.383130573494</v>
       </c>
       <c r="V11" t="n">
-        <v>2759.850719956088</v>
+        <v>2533.512310489647</v>
       </c>
       <c r="W11" t="n">
-        <v>2535.407555695697</v>
+        <v>2207.935722479257</v>
       </c>
       <c r="X11" t="n">
-        <v>2535.407555695697</v>
+        <v>1861.6620314779</v>
       </c>
       <c r="Y11" t="n">
-        <v>2172.460290979609</v>
+        <v>1498.714766761812</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5133,7 +5133,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P12" t="n">
         <v>2407.41198488674</v>
@@ -5142,28 +5142,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>635.4074251142021</v>
+        <v>759.525093955558</v>
       </c>
       <c r="C13" t="n">
-        <v>493.6633094460188</v>
+        <v>759.525093955558</v>
       </c>
       <c r="D13" t="n">
-        <v>370.7387372934068</v>
+        <v>636.600521802946</v>
       </c>
       <c r="E13" t="n">
-        <v>370.7387372934068</v>
+        <v>515.8794954802767</v>
       </c>
       <c r="F13" t="n">
-        <v>277.1564957196716</v>
+        <v>396.1816152420901</v>
       </c>
       <c r="G13" t="n">
-        <v>136.6457263541143</v>
+        <v>255.6708458765328</v>
       </c>
       <c r="H13" t="n">
         <v>136.6457263541143</v>
@@ -5197,13 +5197,13 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>138.285694000374</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705056</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402569</v>
+        <v>712.1345656402568</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5221,28 +5221,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2140.502109058534</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.008292145084</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T13" t="n">
-        <v>1781.433743974334</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="U13" t="n">
-        <v>1519.522944359702</v>
+        <v>1651.459102547703</v>
       </c>
       <c r="V13" t="n">
-        <v>1292.030523413539</v>
+        <v>1570.604589825411</v>
       </c>
       <c r="W13" t="n">
-        <v>1029.805420636302</v>
+        <v>1308.379487048175</v>
       </c>
       <c r="X13" t="n">
-        <v>829.0079369980084</v>
+        <v>1107.582003409881</v>
       </c>
       <c r="Y13" t="n">
-        <v>635.4074251142021</v>
+        <v>913.9814915260747</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1465.153151170352</v>
+        <v>2154.822967855899</v>
       </c>
       <c r="C14" t="n">
-        <v>1123.382701489664</v>
+        <v>1813.052518175211</v>
       </c>
       <c r="D14" t="n">
-        <v>1123.382701489664</v>
+        <v>1481.978886828184</v>
       </c>
       <c r="E14" t="n">
         <v>1123.382701489664</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5888639597798</v>
+        <v>739.5888639597799</v>
       </c>
       <c r="G14" t="n">
         <v>351.7084810645001</v>
@@ -5273,55 +5273,55 @@
         <v>81.31694793299096</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395988</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.721540039935</v>
+        <v>3146.820141253116</v>
       </c>
       <c r="U14" t="n">
-        <v>2859.358467702584</v>
+        <v>2920.481731786676</v>
       </c>
       <c r="V14" t="n">
-        <v>2859.358467702584</v>
+        <v>2920.481731786676</v>
       </c>
       <c r="W14" t="n">
-        <v>2533.781879692194</v>
+        <v>2594.905143776286</v>
       </c>
       <c r="X14" t="n">
-        <v>2187.508188690838</v>
+        <v>2514.230740660297</v>
       </c>
       <c r="Y14" t="n">
-        <v>1824.56092397475</v>
+        <v>2514.230740660297</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228006</v>
@@ -5361,16 +5361,16 @@
         <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
         <v>2407.411984886741</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>590.7166931409542</v>
+        <v>901.2692096237413</v>
       </c>
       <c r="C16" t="n">
-        <v>448.972577472771</v>
+        <v>759.5250939555581</v>
       </c>
       <c r="D16" t="n">
-        <v>326.0480053201588</v>
+        <v>636.6005218029462</v>
       </c>
       <c r="E16" t="n">
-        <v>326.0480053201588</v>
+        <v>515.8794954802768</v>
       </c>
       <c r="F16" t="n">
-        <v>326.0480053201588</v>
+        <v>396.1816152420901</v>
       </c>
       <c r="G16" t="n">
-        <v>185.5372359546016</v>
+        <v>255.6708458765328</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218339</v>
+        <v>136.6457263541143</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705056</v>
+        <v>368.9238220705058</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402568</v>
+        <v>712.1345656402572</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5449,37 +5449,37 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P16" t="n">
         <v>2036.240867784764</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.863719075785</v>
+        <v>2077.863719075786</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162335</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T16" t="n">
-        <v>1891.199409571603</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="U16" t="n">
-        <v>1629.28860995697</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="V16" t="n">
-        <v>1401.796189010807</v>
+        <v>1491.302933045423</v>
       </c>
       <c r="W16" t="n">
-        <v>1139.57108623357</v>
+        <v>1450.123602716357</v>
       </c>
       <c r="X16" t="n">
-        <v>938.7736025952765</v>
+        <v>1249.326119078064</v>
       </c>
       <c r="Y16" t="n">
-        <v>745.1730907114702</v>
+        <v>1055.725607194257</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1830.862197398326</v>
+        <v>1855.320338666651</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.999521934036</v>
+        <v>1560.999521934037</v>
       </c>
       <c r="D17" t="n">
         <v>1277.375523535083</v>
@@ -5507,58 +5507,58 @@
         <v>289.4540166156191</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344062</v>
+        <v>3314.414994612387</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936081</v>
+        <v>3183.078947204406</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417714</v>
+        <v>3004.190170686039</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.31084228194</v>
+        <v>2747.768983550265</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.183887219624</v>
+        <v>2469.642028487948</v>
       </c>
       <c r="X17" t="n">
-        <v>2146.359829166341</v>
+        <v>2170.817970434665</v>
       </c>
       <c r="Y17" t="n">
-        <v>1830.862197398326</v>
+        <v>1855.320338666651</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>936.5735814686067</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>827.0643955080121</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.121778987228</v>
+        <v>569.1217789872281</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671181</v>
+        <v>474.8272962671183</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625795</v>
+        <v>399.3523570625796</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879834</v>
+        <v>326.0809636879835</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978701</v>
+        <v>253.8327163978702</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803861</v>
+        <v>160.7715799803862</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604099</v>
+        <v>89.19609340604103</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
         <v>111.6347488791189</v>
@@ -5701,22 +5701,22 @@
         <v>1795.061607088441</v>
       </c>
       <c r="T19" t="n">
-        <v>1584.906697729437</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1370.445531062878</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.402743064788</v>
+        <v>1253.432737201115</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6272732356241</v>
+        <v>1038.657267371951</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2794225454038</v>
+        <v>822.2794225454039</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096707</v>
+        <v>676.1285436096708</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1518.904057542001</v>
+        <v>1855.320338666651</v>
       </c>
       <c r="C20" t="n">
-        <v>1224.583240809387</v>
+        <v>1560.999521934037</v>
       </c>
       <c r="D20" t="n">
-        <v>940.9592424104333</v>
+        <v>1277.375523535083</v>
       </c>
       <c r="E20" t="n">
-        <v>940.9592424104333</v>
+        <v>966.228971144636</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628257</v>
+        <v>629.8847665628255</v>
       </c>
       <c r="G20" t="n">
         <v>289.4540166156191</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810553</v>
@@ -5765,7 +5765,7 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296685</v>
@@ -5777,25 +5777,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344062</v>
+        <v>3316.148310542364</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.620805936081</v>
+        <v>3316.148310542364</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417714</v>
+        <v>3316.148310542364</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.31084228194</v>
+        <v>3059.727123406591</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.183887219624</v>
+        <v>2781.600168344274</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.359829166341</v>
+        <v>2482.776110290991</v>
       </c>
       <c r="Y20" t="n">
-        <v>1830.862197398326</v>
+        <v>2167.278478522976</v>
       </c>
     </row>
     <row r="21">
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387291</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
         <v>765.151745215813</v>
@@ -5841,40 +5841,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.121778987228</v>
+        <v>632.151773123555</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671181</v>
+        <v>537.8572904034452</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625795</v>
+        <v>462.3823511989065</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879834</v>
+        <v>389.1109578243104</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978701</v>
+        <v>316.862710534197</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803861</v>
+        <v>223.801574116713</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604099</v>
+        <v>152.2260875423678</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
         <v>111.6347488791189</v>
@@ -5938,22 +5938,22 @@
         <v>1795.061607088441</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.906697729437</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.445531062878</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.402743064788</v>
+        <v>1253.432737201115</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6272732356241</v>
+        <v>1038.657267371951</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2794225454038</v>
+        <v>885.3094166817308</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096707</v>
+        <v>739.1585377459977</v>
       </c>
     </row>
     <row r="23">
@@ -5972,52 +5972,52 @@
         <v>1284.241161925382</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349349</v>
+        <v>973.094609534935</v>
       </c>
       <c r="F23" t="n">
         <v>636.7504049531244</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059181</v>
+        <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248236</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248236</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="J23" t="n">
         <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713542</v>
+        <v>722.3006998426979</v>
       </c>
       <c r="L23" t="n">
-        <v>1047.110472719763</v>
+        <v>1173.334913091107</v>
       </c>
       <c r="M23" t="n">
-        <v>1580.642377391687</v>
+        <v>1706.866817763031</v>
       </c>
       <c r="N23" t="n">
-        <v>2127.42119445047</v>
+        <v>2253.645634821813</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454455</v>
+        <v>2756.61810570115</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811633</v>
+        <v>3151.392472058328</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567315</v>
+        <v>3609.870674567316</v>
       </c>
       <c r="R23" t="n">
         <v>3668.887741124118</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.23877285901</v>
+        <v>3633.238772859011</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451029</v>
+        <v>3501.90272545103</v>
       </c>
       <c r="U23" t="n">
         <v>3323.013948932663</v>
@@ -6029,10 +6029,10 @@
         <v>2788.465806734572</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681289</v>
+        <v>2489.64174868129</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913274</v>
+        <v>2174.144116913275</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>92.38504642094443</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248236</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243131</v>
+        <v>167.0550243130996</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934471</v>
+        <v>405.3192232934467</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061124</v>
+        <v>772.0173836061119</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382883</v>
+        <v>1692.816752382882</v>
       </c>
       <c r="O24" t="n">
         <v>2103.778031800937</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.27762327704</v>
+        <v>2414.277623277039</v>
       </c>
       <c r="Q24" t="n">
         <v>2571.91918092364</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0174115138541</v>
+        <v>639.017411513854</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7229287937442</v>
+        <v>481.6929346574173</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528784</v>
+        <v>406.2179954528785</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782824</v>
+        <v>332.9466020782825</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881691</v>
+        <v>260.6983547881692</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706851</v>
+        <v>167.6372183706852</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179633996</v>
+        <v>96.06173179634</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248236</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="J25" t="n">
         <v>118.5003872694179</v>
@@ -6190,7 +6190,7 @@
         <v>892.1750550720297</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362968</v>
+        <v>746.0241761362967</v>
       </c>
     </row>
     <row r="26">
@@ -6200,64 +6200,64 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455608</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L26" t="n">
-        <v>1184.800837351328</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>1718.332742023252</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N26" t="n">
-        <v>2265.111559082034</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O26" t="n">
-        <v>3145.076209411489</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P26" t="n">
-        <v>3539.850575768667</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
         <v>3346.282596468334</v>
@@ -6266,10 +6266,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6300,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6367,31 +6367,31 @@
         <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6449,43 +6449,43 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>1002.369923216576</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L29" t="n">
-        <v>1453.404136464984</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>1986.936041136909</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N29" t="n">
-        <v>2533.714858195691</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O29" t="n">
-        <v>3036.687329075028</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309627</v>
@@ -6537,28 +6537,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
         <v>423.2675027973143</v>
@@ -6640,31 +6640,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
         <v>1711.594658697161</v>
@@ -6686,34 +6686,34 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467792</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>924.7493799910139</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L32" t="n">
-        <v>1375.783593239423</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>1909.315497911347</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N32" t="n">
-        <v>2456.094314970129</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O32" t="n">
-        <v>2959.066785849466</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P32" t="n">
         <v>3474.791320094415</v>
@@ -6722,7 +6722,7 @@
         <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309627</v>
@@ -6740,7 +6740,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6774,7 +6774,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873064</v>
@@ -6795,7 +6795,7 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960314</v>
@@ -6874,7 +6874,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572251</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464981</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.825297830734</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495726</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668173</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -7008,19 +7008,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>552.4050786964428</v>
+        <v>696.9279421464336</v>
       </c>
       <c r="C37" t="n">
-        <v>482.1403303423795</v>
+        <v>626.6631937923701</v>
       </c>
       <c r="D37" t="n">
-        <v>332.0236909300437</v>
+        <v>575.2179889538778</v>
       </c>
       <c r="E37" t="n">
-        <v>282.7820319214941</v>
+        <v>525.9763299453282</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919196</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404821</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1744.44964124669</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1621.35446039006</v>
+        <v>1568.534454692364</v>
       </c>
       <c r="U37" t="n">
-        <v>1430.923028089547</v>
+        <v>1378.103022391851</v>
       </c>
       <c r="V37" t="n">
-        <v>1274.909974457504</v>
+        <v>1222.089968759808</v>
       </c>
       <c r="W37" t="n">
-        <v>985.4928044205431</v>
+        <v>1031.34423329669</v>
       </c>
       <c r="X37" t="n">
-        <v>856.1746880963692</v>
+        <v>902.0261169725164</v>
       </c>
       <c r="Y37" t="n">
-        <v>635.3821089528391</v>
+        <v>779.9049724028298</v>
       </c>
     </row>
     <row r="38">
@@ -7148,73 +7148,73 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464968</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F38" t="n">
         <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495726</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810541</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296684</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710107</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668173</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960651</v>
@@ -7248,7 +7248,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7263,13 +7263,13 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>444.8926667912274</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C40" t="n">
-        <v>374.627918437164</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D40" t="n">
-        <v>323.1827135986718</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159864</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919196</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U40" t="n">
-        <v>1422.082050758175</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V40" t="n">
-        <v>1266.068997126132</v>
+        <v>927.421422430466</v>
       </c>
       <c r="W40" t="n">
-        <v>1075.323261663015</v>
+        <v>736.6756869673488</v>
       </c>
       <c r="X40" t="n">
-        <v>847.3337107649972</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y40" t="n">
-        <v>626.5411316214671</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307327</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495726</v>
@@ -7409,7 +7409,7 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
         <v>589.210621081055</v>
@@ -7445,16 +7445,16 @@
         <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7506,7 +7506,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>543.5641013650711</v>
+        <v>795.5993767202768</v>
       </c>
       <c r="C43" t="n">
-        <v>473.2993530110077</v>
+        <v>725.3346283662135</v>
       </c>
       <c r="D43" t="n">
-        <v>421.8541481725155</v>
+        <v>673.8894235277213</v>
       </c>
       <c r="E43" t="n">
-        <v>273.9410545901224</v>
+        <v>525.9763299453282</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919196</v>
+        <v>379.0863824474178</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404821</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218339</v>
@@ -7603,16 +7603,16 @@
         <v>1520.753485332019</v>
       </c>
       <c r="V43" t="n">
-        <v>1266.068997126132</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W43" t="n">
-        <v>976.6518270891713</v>
+        <v>1173.994696236858</v>
       </c>
       <c r="X43" t="n">
-        <v>847.3337107649975</v>
+        <v>1044.676579912684</v>
       </c>
       <c r="Y43" t="n">
-        <v>626.5411316214673</v>
+        <v>922.555435342998</v>
       </c>
     </row>
     <row r="44">
@@ -7628,67 +7628,67 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464972</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307332</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495726</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710107</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668173</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y44" t="n">
         <v>1999.070337960651</v>
@@ -7722,28 +7722,28 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>599.6022649647787</v>
+        <v>453.7336441225993</v>
       </c>
       <c r="C46" t="n">
-        <v>529.3375166107153</v>
+        <v>383.468895768536</v>
       </c>
       <c r="D46" t="n">
-        <v>477.8923117722231</v>
+        <v>332.0236909300439</v>
       </c>
       <c r="E46" t="n">
-        <v>428.6506527636735</v>
+        <v>282.7820319214944</v>
       </c>
       <c r="F46" t="n">
-        <v>281.7607052657631</v>
+        <v>234.5635189974276</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143256</v>
+        <v>165.5321169459901</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J46" t="n">
         <v>111.6347488791189</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U46" t="n">
-        <v>1520.753485332019</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V46" t="n">
-        <v>1322.10716072584</v>
+        <v>978.8956707359728</v>
       </c>
       <c r="W46" t="n">
-        <v>1032.689990688879</v>
+        <v>788.1499352728557</v>
       </c>
       <c r="X46" t="n">
-        <v>903.371874364705</v>
+        <v>658.831818948682</v>
       </c>
       <c r="Y46" t="n">
-        <v>781.2507297950184</v>
+        <v>536.7106743789955</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430632</v>
+        <v>157.235310843063</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729009</v>
+        <v>184.4039433729006</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389605</v>
+        <v>191.4948909389602</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333069</v>
+        <v>181.0856325333065</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830242</v>
+        <v>179.3553748830238</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383991</v>
+        <v>182.8301554383988</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586586</v>
+        <v>190.8908035586583</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266125</v>
+        <v>192.0103836266123</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875974</v>
+        <v>112.6562001875973</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372534</v>
+        <v>113.6031223372532</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672275</v>
+        <v>105.9629718672272</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253594</v>
+        <v>104.1013981253591</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677665</v>
+        <v>92.30246558677635</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359736</v>
+        <v>106.8829608359734</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798325</v>
+        <v>105.3113487798323</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615458</v>
+        <v>120.8212784615457</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564658</v>
+        <v>116.1755252564657</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085228</v>
+        <v>119.1996074085226</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140778</v>
+        <v>108.4284123140777</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530925</v>
+        <v>120.6694600530924</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662705</v>
+        <v>122.5080856662704</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>5.329070518200751e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>127.499434718529</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9650,13 +9650,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>339.8144253784333</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>131.2335379367253</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>277.2206841544156</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>233.4533865158199</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>277.220684154416</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>122.1718867553245</v>
+        <v>277.220684154416</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>-4.287247876536602e-13</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>338.352745183881</v>
+        <v>322.5876956408076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.7628950335564</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717755</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>100.1220895124995</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913425</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948108</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.3266745115013</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594427</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.85448227780684</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271943</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292083</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>145.1715291416326</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335564</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851353</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26761520104934</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>21.75558375779912</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>300.8321118830084</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>262.9432950065132</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="15">
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594427</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358047</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271161</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,16 +23704,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>170.680015024218</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>218.8353147236899</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>308.8385584577615</v>
       </c>
       <c r="C17" t="n">
-        <v>24.21355985564156</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>24.21355985564129</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23975,10 +23975,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665427</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>25.01703144686081</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>25.92954262631931</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1232958.492886055</v>
+        <v>1232958.492886056</v>
       </c>
     </row>
     <row r="7">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61445.72540377788</v>
+        <v>61445.72540377787</v>
       </c>
       <c r="C2" t="n">
         <v>61445.72540377788</v>
       </c>
       <c r="D2" t="n">
-        <v>61447.40023544596</v>
+        <v>61447.40023544595</v>
       </c>
       <c r="E2" t="n">
-        <v>54715.50006787317</v>
+        <v>54715.5000678731</v>
       </c>
       <c r="F2" t="n">
-        <v>54715.50006787311</v>
+        <v>54715.5000678731</v>
       </c>
       <c r="G2" t="n">
-        <v>59589.81159349022</v>
+        <v>59589.81159349024</v>
       </c>
       <c r="H2" t="n">
-        <v>59589.81159349024</v>
+        <v>59589.81159349023</v>
       </c>
       <c r="I2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982117</v>
+        <v>61578.13273982121</v>
       </c>
       <c r="K2" t="n">
         <v>61578.13273982122</v>
@@ -26344,16 +26344,16 @@
         <v>61578.13273982118</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.13273982129</v>
+        <v>61578.13273982132</v>
       </c>
       <c r="N2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.1327398213</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982132</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982131</v>
+        <v>61578.13273982128</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552268</v>
+        <v>59764.55367552313</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163632</v>
+        <v>1089238.972163631</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>22821.46782983363</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179701</v>
+        <v>25409.43302179704</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927242</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,34 +26421,34 @@
         <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>421637.9387995427</v>
+        <v>421637.9387995425</v>
       </c>
       <c r="E4" t="n">
-        <v>38804.27401362525</v>
+        <v>38804.27401362523</v>
       </c>
       <c r="F4" t="n">
         <v>38804.2740136252</v>
       </c>
       <c r="G4" t="n">
-        <v>75832.43437506747</v>
+        <v>75832.43437506743</v>
       </c>
       <c r="H4" t="n">
-        <v>75832.43437506743</v>
+        <v>75832.4343750674</v>
       </c>
       <c r="I4" t="n">
-        <v>88045.1609345131</v>
+        <v>88045.16093451309</v>
       </c>
       <c r="J4" t="n">
-        <v>84858.1594017309</v>
+        <v>84858.15940173093</v>
       </c>
       <c r="K4" t="n">
+        <v>84858.15940173094</v>
+      </c>
+      <c r="L4" t="n">
         <v>84858.15940173093</v>
       </c>
-      <c r="L4" t="n">
-        <v>84858.15940173095</v>
-      </c>
       <c r="M4" t="n">
-        <v>90964.01098815721</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="N4" t="n">
         <v>90964.01098815716</v>
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186635</v>
+        <v>35148.90543186637</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482642</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482642</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
         <v>80518.64312521488</v>
@@ -26488,10 +26488,10 @@
         <v>80518.64312521488</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.52830184209</v>
+        <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
@@ -26500,7 +26500,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624984</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-413831.1245920425</v>
+        <v>-413835.5381699107</v>
       </c>
       <c r="C6" t="n">
-        <v>-413831.1245920426</v>
+        <v>-413835.5381699107</v>
       </c>
       <c r="D6" t="n">
-        <v>-455103.9976714858</v>
+        <v>-455108.3554216319</v>
       </c>
       <c r="E6" t="n">
-        <v>-1149897.236474211</v>
+        <v>-1150125.990896608</v>
       </c>
       <c r="F6" t="n">
-        <v>-60658.26431057851</v>
+        <v>-60887.01873297679</v>
       </c>
       <c r="G6" t="n">
-        <v>-134341.3752016662</v>
+        <v>-134407.6525732105</v>
       </c>
       <c r="H6" t="n">
-        <v>-96761.26590679208</v>
+        <v>-96827.54327833641</v>
       </c>
       <c r="I6" t="n">
         <v>-135025.0243263676</v>
       </c>
       <c r="J6" t="n">
-        <v>-138067.4013585128</v>
+        <v>-138067.4013585129</v>
       </c>
       <c r="K6" t="n">
         <v>-112657.9683367158</v>
       </c>
       <c r="L6" t="n">
-        <v>-150238.07763159</v>
+        <v>-150238.0776315899</v>
       </c>
       <c r="M6" t="n">
-        <v>-314072.5755473099</v>
+        <v>-314072.5755473098</v>
       </c>
       <c r="N6" t="n">
         <v>-111904.4755545857</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="F2" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="G2" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H2" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I2" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859257</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="O2" t="n">
         <v>97.68472022810509</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810515</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790629</v>
+        <v>69.78465283790682</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26799,19 +26799,19 @@
         <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810295</v>
+        <v>917.2219352810296</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208615</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022924</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022922</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022922</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951251</v>
+        <v>50.70958360951246</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790629</v>
+        <v>69.78465283790682</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755392</v>
+        <v>1019.992047755391</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>85.82047987873705</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758485</v>
+        <v>97.11452592758496</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959703</v>
+        <v>648.4664495959704</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434005</v>
+        <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104727</v>
+        <v>199.6603204104726</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780175</v>
+        <v>132.2465643780174</v>
       </c>
       <c r="S8" t="n">
         <v>202.6272343036572</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672107</v>
+        <v>84.22861846672103</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987519</v>
+        <v>90.83829126987513</v>
       </c>
       <c r="S9" t="n">
         <v>168.895076719229</v>
@@ -28032,10 +28032,10 @@
         <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519085</v>
+        <v>84.46220888519079</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990358</v>
+        <v>7.649035050990248</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317054</v>
+        <v>75.62456067317045</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437878</v>
+        <v>171.6351144437877</v>
       </c>
       <c r="S10" t="n">
         <v>221.8235295207384</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712652</v>
+        <v>26.9201465871265</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="C14" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="D14" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="E14" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="F14" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="G14" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="H14" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="I14" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="T14" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="U14" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="V14" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="W14" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="X14" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="D16" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="E16" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="F16" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="G16" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="H16" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="I16" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="J16" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="K16" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="L16" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="M16" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="N16" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="O16" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="P16" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="R16" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="S16" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="T16" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="U16" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="V16" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="W16" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="X16" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.9201465871265</v>
+        <v>26.92014658712649</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="W17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="X17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="S19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T19" t="n">
+        <v>73.89528320571907</v>
+      </c>
+      <c r="U19" t="n">
+        <v>73.89528320571907</v>
+      </c>
+      <c r="V19" t="n">
+        <v>73.89528320571907</v>
+      </c>
+      <c r="W19" t="n">
+        <v>73.89528320571907</v>
+      </c>
+      <c r="X19" t="n">
         <v>11.49558901075545</v>
       </c>
-      <c r="U19" t="n">
-        <v>73.8952832057191</v>
-      </c>
-      <c r="V19" t="n">
-        <v>73.8952832057191</v>
-      </c>
-      <c r="W19" t="n">
-        <v>73.8952832057191</v>
-      </c>
-      <c r="X19" t="n">
-        <v>73.8952832057191</v>
-      </c>
       <c r="Y19" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="W20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="X20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I22" t="n">
-        <v>73.8952832057191</v>
+        <v>11.49558901075552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="S22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T22" t="n">
-        <v>11.49558901075545</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="W22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="X22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="W23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="X23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C25" t="n">
-        <v>73.8952832057191</v>
+        <v>11.49558901075548</v>
       </c>
       <c r="D25" t="n">
-        <v>11.4955890107552</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="S25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="W25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="X25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.8952832057191</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="26">
@@ -29469,7 +29469,7 @@
         <v>46.97513661859257</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P28" t="n">
         <v>46.97513661859257</v>
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859216</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F37" t="n">
-        <v>46.72521440565244</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810509</v>
+        <v>54.14548214544419</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E40" t="n">
-        <v>55.47778196371064</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810509</v>
+        <v>46.7252144056535</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="41">
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810509</v>
+        <v>54.1454821454434</v>
       </c>
       <c r="C43" t="n">
         <v>97.68472022810509</v>
@@ -30627,16 +30627,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>55.47778196371046</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>97.68472022810509</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30675,16 +30675,16 @@
         <v>97.68472022810509</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X43" t="n">
         <v>97.68472022810509</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810515</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>46.7252144056521</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>55.47778196371041</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810515</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810515</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413316</v>
+        <v>0.2805413179413337</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366663</v>
+        <v>2.873093772366685</v>
       </c>
       <c r="I8" t="n">
-        <v>10.8155691599332</v>
+        <v>10.81556915993328</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362312</v>
+        <v>23.8105936836233</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207969</v>
+        <v>35.68590767207996</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102673</v>
+        <v>44.27152403102706</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396588</v>
+        <v>49.26060069396625</v>
       </c>
       <c r="N8" t="n">
-        <v>50.0576887135667</v>
+        <v>50.05768871356707</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328757</v>
+        <v>47.26805598328793</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661095</v>
+        <v>40.34219219661125</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.295306247837</v>
+        <v>30.29530624783722</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313219</v>
+        <v>17.62255356313232</v>
       </c>
       <c r="S8" t="n">
-        <v>6.3928352825881</v>
+        <v>6.392835282588149</v>
       </c>
       <c r="T8" t="n">
-        <v>1.22806961928818</v>
+        <v>1.228069619288189</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530652</v>
+        <v>0.02244330543530669</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796475</v>
+        <v>0.1501028381796486</v>
       </c>
       <c r="H9" t="n">
-        <v>1.44967741084028</v>
+        <v>1.449677410840291</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694005</v>
+        <v>5.168014384694043</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906924</v>
+        <v>14.18142647906935</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710563</v>
+        <v>24.23831663710581</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264671</v>
+        <v>32.59140791264696</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665892</v>
+        <v>38.03263579665921</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655666</v>
+        <v>39.03924649655695</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847078</v>
+        <v>35.71328360847105</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449778</v>
+        <v>28.66305863449799</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447571</v>
+        <v>19.16049562447585</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767943</v>
+        <v>9.319542882768012</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608801</v>
+        <v>2.788094384608823</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890176</v>
+        <v>0.6050197731890221</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345235</v>
+        <v>0.00987518672234531</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486835</v>
+        <v>0.1258411772486844</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811023</v>
+        <v>1.118842466811031</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078591</v>
+        <v>3.78438740307862</v>
       </c>
       <c r="J10" t="n">
-        <v>8.89697123148192</v>
+        <v>8.896971231481988</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489249</v>
+        <v>14.6204567748926</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477245</v>
+        <v>18.70915102477259</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908226</v>
+        <v>19.72617653908241</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115536</v>
+        <v>19.25713215115551</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875029</v>
+        <v>17.78707839875042</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287713</v>
+        <v>15.21991838287724</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852385</v>
+        <v>10.53748257852393</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381711</v>
+        <v>5.658276933381754</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233874</v>
+        <v>2.193068516233891</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625565</v>
+        <v>0.5376850300625605</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564561</v>
+        <v>0.006864064213564613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R11" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,37 +31829,37 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J12" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
@@ -31868,7 +31868,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31917,16 +31917,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
         <v>300.7247737883114</v>
@@ -31935,19 +31935,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S13" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780294</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837935</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32558,7 +32558,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837924</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837924</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33512,13 +33512,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970255</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33737,7 +33737,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138795</v>
@@ -33746,7 +33746,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O36" t="n">
         <v>557.7086478970249</v>
@@ -33980,7 +33980,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837924</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34223,13 +34223,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019271</v>
+        <v>72.49856320019266</v>
       </c>
       <c r="K13" t="n">
         <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573246</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806103</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O13" t="n">
         <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3143851250202</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004602</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019268</v>
+        <v>72.49856320019272</v>
       </c>
       <c r="K16" t="n">
-        <v>232.967806131446</v>
+        <v>232.9678061314461</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097662</v>
+        <v>329.2732768097663</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.3143851250201</v>
+        <v>105.3143851250202</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004591</v>
@@ -36358,7 +36358,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>464.6907212739294</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923319</v>
@@ -36370,13 +36370,13 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>847.8674262666523</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222472</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597745</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>586.8236523290573</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302265</v>
@@ -36607,16 +36607,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>675.9826703737872</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597776</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004591</v>
@@ -36832,7 +36832,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>570.6446730712203</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923319</v>
@@ -36847,13 +36847,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>675.9826703737876</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597774</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
         <v>394.6085160120763</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
@@ -37084,7 +37084,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>520.9338729746961</v>
+        <v>675.9826703737876</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636241</v>
@@ -37160,13 +37160,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637025</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37318,7 +37318,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882196</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193716</v>
@@ -37385,7 +37385,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340053</v>
@@ -37394,7 +37394,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525805</v>
@@ -37543,7 +37543,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865553994</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923319</v>
@@ -37564,7 +37564,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004591</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923319</v>
@@ -37871,13 +37871,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302257</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129113</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597746</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
